--- a/Documentos/TimeLine/nova versão.xlsx
+++ b/Documentos/TimeLine/nova versão.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3011E2E2-CFC4-45DC-AD50-EC0F96227820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF2222-C5C3-40F8-B67D-7DF1CA252DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Task 3</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>Tornar a tela mais intuitiva ao usuário</t>
-  </si>
-  <si>
-    <t>Avaliação de postagens no site</t>
   </si>
   <si>
     <t>Interatividade com sistema (like)</t>
@@ -922,6 +919,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -929,18 +938,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
@@ -1509,9 +1506,9 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y13" sqref="Y13:Z13"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1530,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1546,7 +1543,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1554,118 +1551,118 @@
         <v>31</v>
       </c>
       <c r="B3" s="64"/>
-      <c r="C3" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="90">
+      <c r="C3" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="87">
         <f ca="1">TODAY()</f>
-        <v>44502</v>
-      </c>
-      <c r="F3" s="90"/>
+        <v>44503</v>
+      </c>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="85"/>
+      <c r="C4" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="89"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="84">
         <f ca="1">I5</f>
         <v>44501</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="84">
         <f ca="1">P5</f>
         <v>44508</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="84">
         <f ca="1">W5</f>
         <v>44515</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="84">
         <f ca="1">AD5</f>
         <v>44522</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="84">
         <f ca="1">AK5</f>
         <v>44529</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="84">
         <f ca="1">AR5</f>
         <v>44536</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="84">
         <f ca="1">AY5</f>
         <v>44543</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="85"/>
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="85"/>
+      <c r="BC4" s="85"/>
+      <c r="BD4" s="85"/>
+      <c r="BE4" s="86"/>
+      <c r="BF4" s="84">
         <f ca="1">BF5</f>
         <v>44550</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
+      <c r="BG4" s="85"/>
+      <c r="BH4" s="85"/>
+      <c r="BI4" s="85"/>
+      <c r="BJ4" s="85"/>
+      <c r="BK4" s="85"/>
+      <c r="BL4" s="86"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44501</v>
@@ -1899,16 +1896,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
@@ -2211,7 +2208,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="19"/>
@@ -2287,7 +2284,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="22">
         <v>0.5</v>
@@ -2369,7 +2366,7 @@
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="22">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E10" s="65">
         <v>44501</v>
@@ -2519,7 +2516,7 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="22">
@@ -2529,13 +2526,12 @@
         <v>44501</v>
       </c>
       <c r="F12" s="65">
-        <f>E12+5</f>
-        <v>44506</v>
+        <v>44520</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2597,21 +2593,22 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="71"/>
-      <c r="D13" s="22"/>
+      <c r="D13" s="22">
+        <v>0.75</v>
+      </c>
       <c r="E13" s="65">
         <v>44501</v>
       </c>
       <c r="F13" s="65">
-        <f>E13+2</f>
-        <v>44503</v>
+        <v>44521</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -2675,7 +2672,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="24"/>
@@ -2756,13 +2753,12 @@
         <v>44501</v>
       </c>
       <c r="F15" s="66">
-        <f>E15+4</f>
-        <v>44505</v>
+        <v>44518</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
@@ -2824,23 +2820,22 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C16" s="73"/>
       <c r="D16" s="27">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E16" s="66">
         <v>44501</v>
       </c>
       <c r="F16" s="66">
-        <f>E16+5</f>
-        <v>44506</v>
+        <v>44519</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -2902,21 +2897,22 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="73"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="27">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="66">
         <v>44501</v>
       </c>
       <c r="F17" s="66">
-        <f>E17+3</f>
-        <v>44504</v>
+        <v>44517</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -2978,21 +2974,22 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="73"/>
-      <c r="D18" s="27"/>
+      <c r="D18" s="27">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="66">
         <v>44501</v>
       </c>
       <c r="F18" s="66">
-        <f>E18+2</f>
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3054,21 +3051,22 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="73"/>
-      <c r="D19" s="27"/>
+      <c r="D19" s="27">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="66">
         <v>44501</v>
       </c>
       <c r="F19" s="66">
-        <f>E19+3</f>
-        <v>44504</v>
+        <v>44516</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3132,7 +3130,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="29"/>
@@ -3206,18 +3204,19 @@
         <v>43</v>
       </c>
       <c r="C21" s="75"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="27">
+        <v>0.5</v>
+      </c>
       <c r="E21" s="67">
         <v>44501</v>
       </c>
       <c r="F21" s="67">
-        <f>E21+5</f>
-        <v>44506</v>
+        <v>44518</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
@@ -3282,18 +3281,19 @@
         <v>42</v>
       </c>
       <c r="C22" s="75"/>
-      <c r="D22" s="32"/>
+      <c r="D22" s="27">
+        <v>0.5</v>
+      </c>
       <c r="E22" s="67">
         <v>44501</v>
       </c>
       <c r="F22" s="67">
-        <f>E22+4</f>
-        <v>44505</v>
+        <v>44531</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3355,21 +3355,22 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="75"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="27">
+        <v>0.5</v>
+      </c>
       <c r="E23" s="67">
         <v>44501</v>
       </c>
       <c r="F23" s="67">
-        <f>E23+5</f>
-        <v>44506</v>
+        <v>44525</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3430,11 +3431,11 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
-      <c r="B24" s="81" t="s">
-        <v>52</v>
-      </c>
+      <c r="B24" s="81"/>
       <c r="C24" s="75"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="27">
+        <v>0.5</v>
+      </c>
       <c r="E24" s="67">
         <v>44501</v>
       </c>
@@ -4184,6 +4185,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4191,11 +4197,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4238,9 +4239,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F18 F22:F23" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Documentos/TimeLine/nova versão.xlsx
+++ b/Documentos/TimeLine/nova versão.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF2222-C5C3-40F8-B67D-7DF1CA252DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E423E696-A916-486E-9B14-30B0875F712E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Task 3</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Apresentação de novas telas, planos  (React)</t>
   </si>
   <si>
-    <t>Planilha de UAT</t>
-  </si>
-  <si>
     <t>Diagrama de Solução de Software - Componentes</t>
   </si>
   <si>
@@ -270,6 +267,12 @@
   </si>
   <si>
     <t>Todos</t>
+  </si>
+  <si>
+    <t>Planilha de UAT, testes de plataforma (homologação de recursos)</t>
+  </si>
+  <si>
+    <t>Integração dos gráficos ao DashBoard</t>
   </si>
 </sst>
 </file>
@@ -919,6 +922,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -931,13 +941,6 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
@@ -1508,7 +1511,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1533,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1543,7 +1546,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1551,118 +1554,118 @@
         <v>31</v>
       </c>
       <c r="B3" s="64"/>
-      <c r="C3" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="87">
+      <c r="C3" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
         <v>44503</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="89"/>
+      <c r="C4" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="85"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="87">
         <f ca="1">I5</f>
         <v>44501</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="84">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f ca="1">P5</f>
         <v>44508</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="84">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f ca="1">W5</f>
         <v>44515</v>
       </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="84">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f ca="1">AD5</f>
         <v>44522</v>
       </c>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="84">
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f ca="1">AK5</f>
         <v>44529</v>
       </c>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="84">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f ca="1">AR5</f>
         <v>44536</v>
       </c>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="84">
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f ca="1">AY5</f>
         <v>44543</v>
       </c>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="85"/>
-      <c r="BB4" s="85"/>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="85"/>
-      <c r="BE4" s="86"/>
-      <c r="BF4" s="84">
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
         <f ca="1">BF5</f>
         <v>44550</v>
       </c>
-      <c r="BG4" s="85"/>
-      <c r="BH4" s="85"/>
-      <c r="BI4" s="85"/>
-      <c r="BJ4" s="85"/>
-      <c r="BK4" s="85"/>
-      <c r="BL4" s="86"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44501</v>
@@ -1896,16 +1899,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
@@ -2208,7 +2211,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="19"/>
@@ -2284,7 +2287,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="22">
         <v>0.5</v>
@@ -2672,7 +2675,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="24"/>
@@ -2820,7 +2823,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="73"/>
       <c r="D16" s="27">
@@ -3130,7 +3133,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="29"/>
@@ -3355,7 +3358,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="81" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="27">
@@ -3431,22 +3434,23 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
-      <c r="B24" s="81"/>
+      <c r="B24" s="81" t="s">
+        <v>64</v>
+      </c>
       <c r="C24" s="75"/>
       <c r="D24" s="27">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E24" s="67">
         <v>44501</v>
       </c>
       <c r="F24" s="67">
-        <f>E24+4</f>
-        <v>44505</v>
+        <v>44518</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -4185,11 +4189,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4197,6 +4196,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
